--- a/Code_Explanation.xlsx
+++ b/Code_Explanation.xlsx
@@ -8,13 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\github\1m-go-tcp-server\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDA53CF-1ECB-4A89-9417-456E93D09394}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072E4117-93FD-44C6-879D-1AD347D8E3AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19250" windowHeight="18924" activeTab="1" xr2:uid="{EC569C77-DCAB-432F-8FFE-F2C96D8C67B5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19250" windowHeight="18924" activeTab="12" xr2:uid="{EC569C77-DCAB-432F-8FFE-F2C96D8C67B5}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
     <sheet name="02" sheetId="2" r:id="rId2"/>
+    <sheet name="03" sheetId="3" r:id="rId3"/>
+    <sheet name="04" sheetId="4" r:id="rId4"/>
+    <sheet name="05" sheetId="5" r:id="rId5"/>
+    <sheet name="06" sheetId="6" r:id="rId6"/>
+    <sheet name="07" sheetId="7" r:id="rId7"/>
+    <sheet name="08" sheetId="8" r:id="rId8"/>
+    <sheet name="09" sheetId="9" r:id="rId9"/>
+    <sheet name="10" sheetId="10" r:id="rId10"/>
+    <sheet name="11" sheetId="12" r:id="rId11"/>
+    <sheet name="12" sheetId="13" r:id="rId12"/>
+    <sheet name="13" sheetId="14" r:id="rId13"/>
+    <sheet name="Sheet9" sheetId="11" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -332,6 +344,1399 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>189782</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>629233</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>148299</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="그룹 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC0B9061-BCAF-405D-9B30-A0216C67E091}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="189782" y="224287"/>
+          <a:ext cx="8030696" cy="9447574"/>
+          <a:chOff x="189782" y="224287"/>
+          <a:chExt cx="8030696" cy="9447574"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="그림 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860A9959-13C7-424C-B63A-ED0D40E1AE3F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="189782" y="431321"/>
+            <a:ext cx="8030696" cy="9240540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD17EA0-D6F5-4A29-B8B2-3A61DA842C64}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="224287" y="224287"/>
+            <a:ext cx="1000664" cy="189781"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>server.go</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>422694</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>43133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>150796</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>49799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6378EB1C-9387-4485-9E3A-A6F89A61E009}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5253486" y="8376250"/>
+          <a:ext cx="5249008" cy="6554115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>362309</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>138023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664234</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>189781</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D927FE82-2087-45E9-A64E-BC5384B9B7BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2432649" y="8471140"/>
+          <a:ext cx="3062377" cy="250166"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>112144</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>146649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>202246</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>86284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6852732E-77D5-4C99-BFF7-EFEC8CCE4FE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11153955" y="12249509"/>
+          <a:ext cx="5611008" cy="5296639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>155276</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>198408</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>155276</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC76F512-C7AA-4EBC-9E0B-3AE7CA7AF55A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7056408" y="10765767"/>
+          <a:ext cx="4183811" cy="1492369"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>405440</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>112143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>112143</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="직선 연결선 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792F36CB-BEEB-44DE-B61B-1C547DA89A24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12827478" y="14992709"/>
+          <a:ext cx="1431986" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>284671</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>5430</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>10387</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D1DDD3-EC92-4662-BE66-286045E4A257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="284671" y="396815"/>
+          <a:ext cx="8002117" cy="13898915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>231906</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>183338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1852D8C0-2D74-457A-A3FB-8096A4CABBC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9661585" y="8531525"/>
+          <a:ext cx="4372585" cy="2762636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>301925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>98894</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>39509</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="그룹 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2EC58B-7B5C-4E34-896F-497367F661F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="301925" y="258792"/>
+          <a:ext cx="8078327" cy="10296317"/>
+          <a:chOff x="301925" y="258792"/>
+          <a:chExt cx="8078327" cy="10296317"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="그림 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8F3BC85-8049-4CA4-BFEF-745D022F5199}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="301925" y="457200"/>
+            <a:ext cx="8078327" cy="10097909"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58941A41-0F15-412B-A44C-26D5686DA083}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="319177" y="258792"/>
+            <a:ext cx="1000664" cy="189781"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>server.go</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>43133</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>60385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76078</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>86103</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C24BE6-2BE0-4648-AD50-BE63BFA9E3B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2803586" y="8790317"/>
+          <a:ext cx="5553850" cy="6573167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>388189</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>25879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>487817</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>163922</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FBF737-F808-4281-B217-A467F3E27DCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4528868" y="11533517"/>
+          <a:ext cx="5620534" cy="5296639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>17253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>546275</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>124672</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="그룹 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B6A964E-04D0-4004-9225-CAB31A9932AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11041812" y="8945593"/>
+          <a:ext cx="4686954" cy="6258053"/>
+          <a:chOff x="11041812" y="8945593"/>
+          <a:chExt cx="4686954" cy="6258053"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="그림 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F704A84-8C5E-4BE8-AE3E-9626EBA535E3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11041812" y="9135374"/>
+            <a:ext cx="4686954" cy="6068272"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08563A7-4CC8-4DE3-8943-4DCE318404AD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11084944" y="8945593"/>
+            <a:ext cx="1000664" cy="189781"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>pow.go</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>241540</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152825</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>166844</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="그룹 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D90AFF-B211-41F8-A302-97FB7748F297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="241540" y="215661"/>
+          <a:ext cx="8192643" cy="14831749"/>
+          <a:chOff x="241540" y="215661"/>
+          <a:chExt cx="8192643" cy="14831749"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="그림 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BFCAC3F-8189-4C27-81F8-8A50DFBE88B4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="241540" y="405442"/>
+            <a:ext cx="8192643" cy="14641968"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{321558E4-351B-4380-B142-0D43FA75D127}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="327805" y="215661"/>
+            <a:ext cx="1000664" cy="189781"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>server.go</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>405442</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>77638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>637348</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>53042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D39D555-FFC8-4F72-BAE5-0367B99CDE30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5926348" y="8609163"/>
+          <a:ext cx="4372585" cy="2753109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>138023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>365274</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>106519</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="그룹 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B00B8DD-3DC0-42A2-9A0F-3F408EA09FFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11041811" y="6685472"/>
+          <a:ext cx="4505954" cy="6317538"/>
+          <a:chOff x="11041811" y="6685472"/>
+          <a:chExt cx="4505954" cy="6317538"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="그림 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60D8370-3E61-4763-8229-F16A75A56B83}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11041811" y="6944264"/>
+            <a:ext cx="4505954" cy="6058746"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9B038C-F530-44C0-BC69-47B25CF24E68}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11050437" y="6685472"/>
+            <a:ext cx="1000664" cy="189781"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>pow.go</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="직선 연결선 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF8A8E1-248D-4FC4-BAF2-9E4BFBF51572}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1380226" y="992038"/>
+          <a:ext cx="2527539" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>319178</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>155276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431321</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>34506</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="직선 화살표 연결선 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC56DD80-86C5-4A7D-ACE1-62FF13DE1BD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1009291" y="1742536"/>
+          <a:ext cx="4252822" cy="474453"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>310551</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>189781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF01211-0398-4664-AD6D-034ED2D73C0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2070340" y="2976113"/>
+          <a:ext cx="1000664" cy="189781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>server.go</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1416,6 +2821,2372 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>120770</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>86264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6602</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>72839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D33F34-CB13-4E39-902D-23DE62BD9FD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="810883" y="19728611"/>
+          <a:ext cx="6096851" cy="2962688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>543465</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>94891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>120770</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FEE2F53-1589-41EB-9BED-FA91624A90AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2613805" y="17554755"/>
+          <a:ext cx="1984074" cy="2208362"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>327804</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>86265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>269702</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>63660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2E4EB7-E88B-49DA-985F-0976736C0F9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7919049" y="19530205"/>
+          <a:ext cx="4772691" cy="4143953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>172529</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>60385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>621102</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>146649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CBABF41-93C8-442B-A259-0F876BEE2244}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4313208" y="15536174"/>
+          <a:ext cx="5279366" cy="4054415"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>120771</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>405441</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25880</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="직선 연결선 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922FF31E-92F7-4AB0-8C1C-2D08F8116B2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1500997" y="8160589"/>
+          <a:ext cx="974784" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25880</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>146649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>310550</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>146649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="직선 연결선 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCE788E-1606-4911-A870-F434955447AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1406106" y="10463841"/>
+          <a:ext cx="974784" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>508959</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>189782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129397</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>181155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDAEE9E-1987-4526-9F8D-7DC66A1FC0C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508959" y="3562710"/>
+          <a:ext cx="1000664" cy="189781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>server.go</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215660</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>8628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>184103</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>112130</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="그룹 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3459C55-84CF-4BA7-B79E-5BDC5619F07B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="215660" y="405443"/>
+          <a:ext cx="8249801" cy="12999993"/>
+          <a:chOff x="224287" y="276046"/>
+          <a:chExt cx="8249801" cy="12999993"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="그림 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4431344-90C5-42C7-AD4C-BEDB040DC71A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="224287" y="491705"/>
+            <a:ext cx="8249801" cy="12784334"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B12642B-03C2-4F75-B943-552BB149FD81}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="336430" y="276046"/>
+            <a:ext cx="1000664" cy="189781"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>server.go</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>129396</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>138023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152815</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>68132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA9EB03-1F9C-4AC7-86CE-966E3D360F56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9100868" y="8272732"/>
+          <a:ext cx="5544324" cy="5287113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>336430</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>69011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>120770</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>155277</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D245F37-59DD-40EF-BC27-27C3A7B1956C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1716656" y="8402128"/>
+          <a:ext cx="7375586" cy="879896"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>603849</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>163902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>569343</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>129396</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2A9B65-B901-471B-8E97-4B840A60D60D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10955547" y="10679502"/>
+          <a:ext cx="5486400" cy="362309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>클라이언트는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>바이트만 보내므로</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> 8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>바이트를 받아서 보낸다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>. CopyN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>이 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>echo </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>기능</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250166</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>189780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>513926</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>118244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D118F383-0A23-4201-BE3B-99961B1B7262}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="250166" y="388188"/>
+          <a:ext cx="8545118" cy="5087060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>232913</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>189780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>334725</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>157126</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E5D187-EE06-49FB-999D-B83DF033BD24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="232913" y="5546784"/>
+          <a:ext cx="8383170" cy="13260651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>327804</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>17253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171313</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>108356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9EBE857-98A2-448A-A1CB-B8E11B973865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7228936" y="13905781"/>
+          <a:ext cx="6744641" cy="7630590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163902</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>181155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>388189</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>43134</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D10E797-38E5-40C9-9122-AAD20573F7B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1544128" y="14069683"/>
+          <a:ext cx="5745193" cy="1052425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25879</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>69011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>362310</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>69011</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="직선 연결선 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6009D340-0BE8-42BD-916B-48736A61C03C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1406105" y="10981426"/>
+          <a:ext cx="3786997" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>120770</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>8626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>451214</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>136881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1F405D6-9356-4DF4-A670-0F2DA13BA5F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="120770" y="405441"/>
+          <a:ext cx="8611802" cy="9850225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>388190</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>34506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>659292</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>29392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD49D18D-EFC6-4476-BFAE-46C8E6D01D15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5218982" y="9558068"/>
+          <a:ext cx="5792008" cy="9716856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>612476</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>60385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>319178</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>146649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 화살표 연결선 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA171FA-5737-44B3-BC21-567AC5281765}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1992702" y="9385540"/>
+          <a:ext cx="3157268" cy="284671"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>569344</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>43132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>336430</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>43132</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 연결선 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{110F5973-23FA-4AC5-8040-F4E75B25408B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1259457" y="9368287"/>
+          <a:ext cx="2527539" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>163902</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>163902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>497471</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>187974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1215FE5-76F7-4990-BEAE-898725F4DF8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11205713" y="14052430"/>
+          <a:ext cx="6544588" cy="6373114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>146649</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>94890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>198408</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>189782</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7361EA98-9C12-4691-BAC6-AD6EAF21BCE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7047781" y="14181826"/>
+          <a:ext cx="4192438" cy="293299"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>293299</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33110</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>121674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E08C075-4E01-4C2B-8078-A4ECBA29BE74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="293299" y="396816"/>
+          <a:ext cx="8021169" cy="9050013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>129396</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>94891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9920</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>101557</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03FD3879-FB82-4AD3-9ADB-B81A6D74A2E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2889849" y="9618453"/>
+          <a:ext cx="5401429" cy="6554115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>439948</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>68569</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>77066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22717737-6757-4A4F-84CB-5641D108AEB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8721306" y="12016596"/>
+          <a:ext cx="5839640" cy="4925112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552090</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>396816</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>25880</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="직선 화살표 연결선 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DEB747-8629-4EA9-B677-A8C60FFCA612}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4692769" y="12016599"/>
+          <a:ext cx="3985405" cy="112141"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>224287</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>532404</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>67460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49AAD9D0-1981-4A1B-B747-37595FBA03F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="224287" y="396815"/>
+          <a:ext cx="4448796" cy="8202170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>508958</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>43132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>237060</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>144716</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA6A210-0BAD-4161-9E4A-A2961AA1CE64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508958" y="9368287"/>
+          <a:ext cx="5249008" cy="5458587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>439948</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>189782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>121510</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>185968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F1F0501-CE0B-4F37-A335-5A818E2F5007}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6650967" y="2570673"/>
+          <a:ext cx="6582694" cy="8726118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>163901</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>86264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>181155</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>129399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="직선 화살표 연결선 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD60EA02-3A9A-454E-B8CD-4BF0F4066C33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2234241" y="2863970"/>
+          <a:ext cx="4848046" cy="3217655"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>94890</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>77638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>184992</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>10692</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FBE1D06-C08E-47D8-AB40-575A35452614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6996022" y="11982091"/>
+          <a:ext cx="5611008" cy="4496427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>198407</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>17253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>483079</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>94890</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="직선 화살표 연결선 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE4A660-1EF7-49F5-8DA6-1EA03F773F2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2268747" y="10731261"/>
+          <a:ext cx="5115464" cy="1268082"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>310550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>450467</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>93769</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="그룹 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A81DC28-249C-42F2-A34D-AB65D3DCCD75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="310550" y="224287"/>
+          <a:ext cx="8421275" cy="15345271"/>
+          <a:chOff x="310550" y="224287"/>
+          <a:chExt cx="8421275" cy="15345271"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="그림 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7C5D99-5D96-4C9B-B9D5-D488D8F2F1D1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="310550" y="422694"/>
+            <a:ext cx="8421275" cy="15146864"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73E6A05-FC07-4C1B-9416-EAC28567B9AF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="336431" y="224287"/>
+            <a:ext cx="1000664" cy="189781"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>server.go</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>414069</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>60385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>260704</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>138084</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="그룹 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{397DE5B3-8611-48F3-946D-0946BE40CFAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7315201" y="8393502"/>
+          <a:ext cx="4677428" cy="16148710"/>
+          <a:chOff x="7315201" y="8393502"/>
+          <a:chExt cx="4677428" cy="16148710"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5ED7240-C6E2-4149-95BF-9127A170E388}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7341079" y="8393502"/>
+            <a:ext cx="1121434" cy="215660"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>worker_pool.go</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="그림 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3677702A-FD4A-4CBF-9175-7F14FBA8A2AB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7315201" y="8652294"/>
+            <a:ext cx="4677428" cy="15889918"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>138022</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>8627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>500332</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>43132</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="직선 화살표 연결선 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB971ECD-91F4-4470-8245-10FDAB765729}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2208362" y="9532189"/>
+          <a:ext cx="5193102" cy="8962845"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>491705</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>8626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>146650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="직선 화살표 연결선 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986154C6-3B78-4A5E-BBF7-B882DECB85AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3252158" y="9333781"/>
+          <a:ext cx="4106174" cy="3312544"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>258793</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>93868</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>143101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD51A51-9DFC-4D0E-9602-1B13100645A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="258793" y="431321"/>
+          <a:ext cx="8116433" cy="13203493"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>146649</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>34506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>454766</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>187619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6629722B-F1F8-42EE-975D-638D6BD03748}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7047781" y="11740551"/>
+          <a:ext cx="4448796" cy="2534004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>94891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>112143</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>172529</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 화살표 연결선 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB69D716-2EEF-4189-9682-19DF4351E221}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2760453" y="11800936"/>
+          <a:ext cx="4252822" cy="474453"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8627</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>69010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25879</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>69010</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 연결선 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E984BAEA-42CB-4BD1-A2DF-DA41C9B4F7FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1388853" y="12370278"/>
+          <a:ext cx="1397479" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1732,12 +5503,205 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B4226A-4BFD-40B2-8CCB-1992CE71707B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="M80" sqref="M80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A78B5E-F0C1-4A28-A7F9-3975CD6DAFFE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CF37D0-7ED4-43DE-837F-C341C22808A1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A19E0E-5EE6-465C-A174-B156126F0BA4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282527B9-21EC-4868-BB1C-CF2C48329861}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC637169-381F-4B87-901B-C0E18CF9E5AD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="N87" sqref="N87"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97BEBFF-B404-4E31-BB2D-5CCEC4DACA1C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EBE3BC-50AC-4BAE-B829-865ED2F20548}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524C8603-823F-490E-A956-B27CEDD7AC28}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250EF3E4-BE46-4DEA-BB4B-7D6F455E74BD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE98F5A-BEA9-4688-95D8-551870CB4BEA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CB5D83-944F-4B30-A43F-73FEDD52581D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7655EF-9346-4730-8067-2ACD789FCA48}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>

--- a/Code_Explanation.xlsx
+++ b/Code_Explanation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\github\1m-go-tcp-server\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\1m-go-tcp-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072E4117-93FD-44C6-879D-1AD347D8E3AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C0D96B-C394-4A0A-A9F2-2459B16CAF2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19250" windowHeight="18924" activeTab="12" xr2:uid="{EC569C77-DCAB-432F-8FFE-F2C96D8C67B5}"/>
+    <workbookView xWindow="12885" yWindow="1020" windowWidth="22755" windowHeight="20385" activeTab="9" xr2:uid="{EC569C77-DCAB-432F-8FFE-F2C96D8C67B5}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -377,8 +377,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="189782" y="224287"/>
-          <a:ext cx="8030696" cy="9447574"/>
+          <a:off x="189782" y="235429"/>
+          <a:ext cx="7983251" cy="9971270"/>
           <a:chOff x="189782" y="224287"/>
           <a:chExt cx="8030696" cy="9447574"/>
         </a:xfrm>
@@ -801,16 +801,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>231906</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>183338</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>460506</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>40463</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -833,12 +833,42 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9661585" y="8531525"/>
-          <a:ext cx="4372585" cy="2762636"/>
+          <a:off x="7086600" y="12011025"/>
+          <a:ext cx="4346706" cy="2907488"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -874,8 +904,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="301925" y="258792"/>
-          <a:ext cx="8078327" cy="10296317"/>
+          <a:off x="301925" y="269934"/>
+          <a:ext cx="8026569" cy="10875725"/>
           <a:chOff x="301925" y="258792"/>
           <a:chExt cx="8078327" cy="10296317"/>
         </a:xfrm>
@@ -1118,16 +1148,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>17253</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>45828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>546275</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>124672</xdr:rowOff>
+      <xdr:colOff>70025</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>153247</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1142,8 +1172,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11041812" y="8945593"/>
-          <a:ext cx="4686954" cy="6258053"/>
+          <a:off x="10496551" y="12199728"/>
+          <a:ext cx="4661074" cy="6603469"/>
           <a:chOff x="11041812" y="8945593"/>
           <a:chExt cx="4686954" cy="6258053"/>
         </a:xfrm>
@@ -1267,8 +1297,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="241540" y="215661"/>
-          <a:ext cx="8192643" cy="14831749"/>
+          <a:off x="241540" y="226803"/>
+          <a:ext cx="8140885" cy="15656291"/>
           <a:chOff x="241540" y="215661"/>
           <a:chExt cx="8192643" cy="14831749"/>
         </a:xfrm>
@@ -1437,16 +1467,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>138023</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>365274</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>106519</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>42773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>641499</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>11269</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1461,8 +1491,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11041811" y="6685472"/>
-          <a:ext cx="4505954" cy="6317538"/>
+          <a:off x="10563225" y="8843873"/>
+          <a:ext cx="4480074" cy="6674096"/>
           <a:chOff x="11041811" y="6685472"/>
           <a:chExt cx="4505954" cy="6317538"/>
         </a:xfrm>
@@ -2051,7 +2081,22 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>? Go</a:t>
+            <a:t>? </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Go</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
@@ -2535,8 +2580,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7461849" y="4865298"/>
-          <a:ext cx="4544059" cy="6723042"/>
+          <a:off x="7418717" y="5132717"/>
+          <a:ext cx="4513866" cy="7101885"/>
           <a:chOff x="7341079" y="8428008"/>
           <a:chExt cx="4544059" cy="6723042"/>
         </a:xfrm>
@@ -3229,8 +3274,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="215660" y="405443"/>
-          <a:ext cx="8249801" cy="12999993"/>
+          <a:off x="215660" y="427728"/>
+          <a:ext cx="8198043" cy="13724252"/>
           <a:chOff x="224287" y="276046"/>
           <a:chExt cx="8249801" cy="12999993"/>
         </a:xfrm>
@@ -4320,6 +4365,61 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="직선 연결선 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BF8082-3368-461A-BA6D-A3FF5C4E110F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3409950" y="10591800"/>
+          <a:ext cx="3019425" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4638,8 +4738,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="310550" y="224287"/>
-          <a:ext cx="8421275" cy="15345271"/>
+          <a:off x="310550" y="235429"/>
+          <a:ext cx="8369517" cy="16203240"/>
           <a:chOff x="310550" y="224287"/>
           <a:chExt cx="8421275" cy="15345271"/>
         </a:xfrm>
@@ -4758,8 +4858,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7315201" y="8393502"/>
-          <a:ext cx="4677428" cy="16148710"/>
+          <a:off x="7272069" y="8861485"/>
+          <a:ext cx="4647235" cy="17051249"/>
           <a:chOff x="7315201" y="8393502"/>
           <a:chExt cx="4677428" cy="16148710"/>
         </a:xfrm>
@@ -5491,11 +5591,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA365DB-211C-4DBE-8C10-0FEB3F47C5A4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5507,11 +5607,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B4226A-4BFD-40B2-8CCB-1992CE71707B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
       <selection activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5523,11 +5623,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A78B5E-F0C1-4A28-A7F9-3975CD6DAFFE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5539,11 +5639,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CF37D0-7ED4-43DE-837F-C341C22808A1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5555,11 +5655,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A19E0E-5EE6-465C-A174-B156126F0BA4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5575,7 +5675,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5587,11 +5687,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC637169-381F-4B87-901B-C0E18CF9E5AD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5603,11 +5703,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97BEBFF-B404-4E31-BB2D-5CCEC4DACA1C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5623,7 +5723,7 @@
       <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5635,11 +5735,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524C8603-823F-490E-A956-B27CEDD7AC28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5651,11 +5751,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250EF3E4-BE46-4DEA-BB4B-7D6F455E74BD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5672,7 +5772,7 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5688,7 +5788,7 @@
       <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5700,11 +5800,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7655EF-9346-4730-8067-2ACD789FCA48}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
